--- a/Data/EC/NIT-8060107226.xlsx
+++ b/Data/EC/NIT-8060107226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B92A081-B14E-43F7-AA49-8BF75B6AFF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F418773-D049-4A1C-8E1B-60A2A8A4E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{948BD179-EC90-4F79-A051-D44F0E7609C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4ADC4237-374F-442D-88CB-6210FF50A1D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,79 +71,79 @@
     <t>BEATRIZ SARMIENTO MACHACON</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FBAF14-CFE4-1CD2-84B2-D22638C74B84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDE40C3-ACC9-0C45-F764-DC988889E7DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DE45D8-1B6A-4D34-A25F-8FBFA39259CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F92500-4B50-4361-8C4C-0B17100DAFC9}">
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1132,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1201,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1523,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1569,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1592,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1615,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1638,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="24">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="24">
         <v>781242</v>
